--- a/data/稼働工程表.xlsx
+++ b/data/稼働工程表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +132,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -222,24 +235,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -547,7 +560,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -562,7 +575,7 @@
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -585,7 +598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -608,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -631,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -654,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -677,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -700,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -723,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -746,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -769,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -792,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -815,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -838,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -861,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -884,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -907,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -997,6 +1010,258 @@
       </c>
       <c r="G19" s="10">
         <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12">
+        <v>35.87</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12">
+        <v>36.4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12">
+        <v>37.57</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12">
+        <v>46.27</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12">
+        <v>46.53</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12">
+        <v>47.03</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12">
+        <v>48.13</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12">
+        <v>56.83</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12">
+        <v>57.63</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12">
+        <v>58.6</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12">
+        <v>67.27</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
